--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3925.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3925.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3925</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jason Nazimuddin Mohammed</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3360</t>
+          <t>3360</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3853</t>
+          <t>3853</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4001</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4004</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4005</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4018</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4019</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1012,7 +1077,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4046</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1060,7 +1124,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>23/06/2017</t>
@@ -1068,7 +1131,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4051</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1120,7 +1183,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4052</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1172,7 +1235,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4053</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1224,7 +1287,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1276,7 +1339,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1328,7 +1391,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1368,7 +1431,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -1376,7 +1438,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4070</t>
+          <t>4070</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1428,7 +1490,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1480,7 +1542,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1532,7 +1594,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4075</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1584,7 +1646,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1636,7 +1698,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4101</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1688,7 +1750,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4102</t>
+          <t>4102</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1728,7 +1790,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>06/03/2018</t>
@@ -1736,7 +1797,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4144</t>
+          <t>4144</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1788,7 +1849,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4148</t>
+          <t>4148</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1840,7 +1901,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1892,7 +1953,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1944,7 +2005,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4443</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1996,7 +2057,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4445</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2048,7 +2109,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2100,7 +2161,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2140,7 +2201,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>12/03/2021</t>
@@ -2148,7 +2208,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2200,7 +2260,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2252,7 +2312,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2304,7 +2364,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2343,7 +2403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2365,7 +2425,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2402,7 +2462,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3853</t>
+          <t>3853</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2439,7 +2499,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4001</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2476,7 +2536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4004</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2513,7 +2573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2550,7 +2610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4019</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2587,7 +2647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2624,7 +2684,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4144</t>
+          <t>4144</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2661,7 +2721,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2698,7 +2758,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4443</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2735,7 +2795,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4445</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2772,7 +2832,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2809,7 +2869,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2846,7 +2906,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2883,7 +2943,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2920,7 +2980,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2957,7 +3017,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2983,6 +3043,559 @@
       <c r="G17" t="inlineStr">
         <is>
           <t>0/12</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4068</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8.82%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4070</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4072</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15.51%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4073</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>12.92%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4075</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8.68%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4100</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3.63%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4101</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>14.88%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4102</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4144</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4148</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4179</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4180</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4.43%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4443</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4445</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7.43%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4447</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9.60%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4449</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5.51%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4450</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.90%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.63%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5.76%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3925.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3925.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,6 +1076,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1124,6 +1124,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>23/06/2017</t>
@@ -1136,7 +1137,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1431,6 +1432,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -1443,7 +1445,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1790,6 +1792,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>06/03/2018</t>
@@ -2201,6 +2204,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>12/03/2021</t>
@@ -3049,557 +3053,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4068</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>8.82%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4070</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4072</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>15.51%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4073</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>12.92%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4075</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8.68%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4100</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.63%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4101</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>14.88%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4102</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4144</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4148</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4179</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4180</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.43%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4443</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4445</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.43%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4447</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>9.60%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4449</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5.51%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4450</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4451</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.90%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4483</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.63%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4484</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>5.76%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>